--- a/medicine/Psychotrope/Bassin_viticole/Bassin_viticole.xlsx
+++ b/medicine/Psychotrope/Bassin_viticole/Bassin_viticole.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un bassin viticole est une zone de production définie géographiquement pour la viticulture. La réforme de la filière viti-vinicole française a conduit, en 2006, à la délimitation de dix bassins viticoles et à la création des conseils de bassin viticole[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un bassin viticole est une zone de production définie géographiquement pour la viticulture. La réforme de la filière viti-vinicole française a conduit, en 2006, à la délimitation de dix bassins viticoles et à la création des conseils de bassin viticole.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Objectifs des conseils de bassin viticole</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>D'après le code rural et de la pêche maritime[2], le conseil de bassin viticole est une instance de concertation entre les partenaires de la filière viticole et les pouvoirs publics pour l'ensemble des questions touchant à la production vitivinicole.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>D'après le code rural et de la pêche maritime, le conseil de bassin viticole est une instance de concertation entre les partenaires de la filière viticole et les pouvoirs publics pour l'ensemble des questions touchant à la production vitivinicole.
 Ces conseils peuvent notamment être consultés :
 sur la reconnaissance d'une nouvelle appellation d'origine ou indication géographique pour un produit vinicole du bassin ;
 sur une présentation harmonisée des différentes catégories de vins au sein du bassin ;
@@ -554,22 +568,97 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Délimitations actuelles
-Les délimitations des bassins viticoles sont définies dans le code rural et de la pêche maritime[3],[4].
+          <t>Délimitations actuelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les délimitations des bassins viticoles sont définies dans le code rural et de la pêche maritime,.
 Ces délimitations se fondent néanmoins sur le découpage administratif existant avant le redécoupage cantonal de 2014 et les récentes fusions de communes.
 Les délimitations des bassins viticoles tenant compte du découpage administratif en vigueur en juillet 2018 sont données dans le tableau suivant :
-Différences entre bassins viticoles et terroirs viticoles régionaux
-Un certain nombre de différences entre les délimitations des bassins viticoles et les terroirs viticoles régionaux sont identifiables. La délimitation des bassins viticoles selon le découpage administratif est en effet parfois contradictoire avec leur vocation à correspondre au terroir viticole au niveau régional.
-Certains bassins ne correspondent ainsi pas exactement aux appellations dont ils ont la charge[5].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bassin_viticole</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bassin_viticole</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Délimitations des bassins viticoles</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Différences entre bassins viticoles et terroirs viticoles régionaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un certain nombre de différences entre les délimitations des bassins viticoles et les terroirs viticoles régionaux sont identifiables. La délimitation des bassins viticoles selon le découpage administratif est en effet parfois contradictoire avec leur vocation à correspondre au terroir viticole au niveau régional.
+Certains bassins ne correspondent ainsi pas exactement aux appellations dont ils ont la charge.
 Les différences suivantes peuvent être relevées :
-Les zones de récolte des raisins définies dans les cahiers des charges[6] de certaines appellations, notamment départementales et régionales, peuvent également se fonder sur le découpage administratif.
+Les zones de récolte des raisins définies dans les cahiers des charges de certaines appellations, notamment départementales et régionales, peuvent également se fonder sur le découpage administratif.
 Certaines appellations s'étendent en effet sur plusieurs bassins viticoles.
 D'autres appellations englobent des parcelles pouvant produire un vin majoritairement produit dans un autre bassin.
 Il existe alors une différence entre le terroir viticole et la délimitation de ce bassin, ou de cette appellation, ou des deux.
 Les faits suivants peuvent ainsi être relevés :
-Les différences indiquées peuvent être palliées. Cela a par exemple été fait en la commune de Saintes-Maries-de-la-Mer du département des Bouches-du-Rhône pour les zones de récolte du pays-des-bouches-du-rhône[7] et du sable-de-camargue[8] : ces deux zones s'excluent mutuellement. Le pays-des-bouches-du-rhône relevant du bassin « Vallée-du-Rhône Provence » et le sable-de-camargue relevant du bassin « Languedoc Roussillon », la délimitation de ces deux bassins dans cette commune devrait correspondre à celle de ces deux appellations. L'appellation méditerranée (sans mention complémentaire) s'étendant sur les bassins « Corse » et « Vallée-du-Rhône Provence », sa zone de récolte dans cette commune devrait alors se limiter à celle de l'appellation pays-des-bouches-du-rhône.
-Cartographie parcellaire des zones de récolte des raisins pour les vins sous AOC
-Une cartographie au niveau parcellaire des zones de récolte des raisins pour les vins sous AOC est actuellement entreprise par l'INAO et l'IGN[9]. La carte, encore incomplète, pour les vins relevant de chaque bassin viticole est disponible sur le site officiel Géoportail[10]. Ce projet pourrait rencontrer une partie des problèmes de délimitations des bassins viticoles énoncés ci-dessus. Un ajustement des délimitations pourrait alors résoudre ces problèmes.
+Les différences indiquées peuvent être palliées. Cela a par exemple été fait en la commune de Saintes-Maries-de-la-Mer du département des Bouches-du-Rhône pour les zones de récolte du pays-des-bouches-du-rhône et du sable-de-camargue : ces deux zones s'excluent mutuellement. Le pays-des-bouches-du-rhône relevant du bassin « Vallée-du-Rhône Provence » et le sable-de-camargue relevant du bassin « Languedoc Roussillon », la délimitation de ces deux bassins dans cette commune devrait correspondre à celle de ces deux appellations. L'appellation méditerranée (sans mention complémentaire) s'étendant sur les bassins « Corse » et « Vallée-du-Rhône Provence », sa zone de récolte dans cette commune devrait alors se limiter à celle de l'appellation pays-des-bouches-du-rhône.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bassin_viticole</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bassin_viticole</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Délimitations des bassins viticoles</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cartographie parcellaire des zones de récolte des raisins pour les vins sous AOC</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une cartographie au niveau parcellaire des zones de récolte des raisins pour les vins sous AOC est actuellement entreprise par l'INAO et l'IGN. La carte, encore incomplète, pour les vins relevant de chaque bassin viticole est disponible sur le site officiel Géoportail. Ce projet pourrait rencontrer une partie des problèmes de délimitations des bassins viticoles énoncés ci-dessus. Un ajustement des délimitations pourrait alors résoudre ces problèmes.
 </t>
         </is>
       </c>
